--- a/biology/Botanique/Pithecoctenium/Pithecoctenium.xlsx
+++ b/biology/Botanique/Pithecoctenium/Pithecoctenium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pithecoctenium est un genre d'arbres de la famille des Bignoniaceae .
 L'espèce type est Pithecoctenium echinatum (Jacq.) Baill..
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pithecoctenium vient du grec πίθηκος píthēkos « petit singe » et κτενίον, kteníon « peigne ».
 </t>
@@ -543,11 +557,13 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (20 mai 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (20 mai 2022) :
 Pithecoctenium calystegiodes (Cham.) Niederl., 1890
-Selon Tropicos                                           (20 mai 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Pithecoctenium aubletii Splitg., 1842
 Pithecoctenium botryoides (Cham.) DC., 1845
 Pithecoctenium buccinatorium DC., 1845
@@ -565,22 +581,22 @@
 Pithecoctenium dolichoides (Cham.) Bureau ex K. Schum., 1894
 Pithecoctenium echinatum (Jacq.) K. Schum., 1894
 Pithecoctenium echinatum K. Schum., 1896
-Pithecoctenium echinatum (Jacq.) Baill., 1891 [1888]
-Pithecoctenium elongatum (Vahl) Klotzsch, 1848 [1849]
+Pithecoctenium echinatum (Jacq.) Baill., 1891 
+Pithecoctenium elongatum (Vahl) Klotzsch, 1848 
 Pithecoctenium falcatum (Vell.) A. Pool, 2007
 Pithecoctenium frutescens DC., 1845
 Pithecoctenium glaucum Rusby, 1927
 Pithecoctenium glaziovii Bureau ex K. Schum., 1894
 Pithecoctenium granulosum (Bureau &amp; K. Schum.) Sprague &amp; Sandwith, 1932
-Pithecoctenium granulosum Klotzsch, 1848 [1849]
-Pithecoctenium guianense Klotzsch, 1848 [1849]
-Pithecoctenium hatschbachii A.H. Gentry, 1979 [1980]
+Pithecoctenium granulosum Klotzsch, 1848 
+Pithecoctenium guianense Klotzsch, 1848 
+Pithecoctenium hatschbachii A.H. Gentry, 1979 
 Pithecoctenium hexagonum DC., 1845
 Pithecoctenium laxiflorum DC., 1845
 Pithecoctenium lundii DC., 1845
 Pithecoctenium muricatum Moc. ex DC., 1845
 Pithecoctenium obovatum Mart. ex DC., 1845
-Pithecoctenium panamense Benth., 1844 [1845]
+Pithecoctenium panamense Benth., 1844 
 Pithecoctenium parviflorum Mart. ex DC., 1845
 Pithecoctenium phaseoloides (Cham.) Schenck, 1892
 Pithecoctenium reticulare DC., 1845
